--- a/data/biobank/20251023 Registre KPS reçus_labo Dipumba.xlsx
+++ b/data/biobank/20251023 Registre KPS reçus_labo Dipumba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itgitm-my.sharepoint.com/personal/nvanreet_itg_be/Documents/Documenten/GitHub/biobank-dashboard/data/biobank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{F3C04CB9-09BD-4DB2-AA32-7C0F47484986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{298FCFDF-BC9D-564C-B1F7-A2E866E7E67C}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{F3C04CB9-09BD-4DB2-AA32-7C0F47484986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EF64E96-5118-532E-BD07-C397640D72CF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enregistrement KPS" sheetId="1" r:id="rId1"/>
@@ -1544,9 +1544,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z1823"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C161" sqref="C161"/>
+      <selection pane="bottomLeft" sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -65673,6 +65673,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-10-23T12:35:50+00:00</Uploaded>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F56A3FBA1F9FF429D4C886089ACEF10" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="93e6b79bffcb710984822118ae45b29f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="974e1998-2087-4290-81d3-cf83f1cc5cbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c971e98cb6cdb6e05177eaad282d8065" ns2:_="">
     <xsd:import namespace="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
@@ -65850,17 +65861,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-10-23T12:35:50+00:00</Uploaded>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEBC995D-71FF-410C-A1DF-DC763BD33DE3}">
   <ds:schemaRefs>
@@ -65870,6 +65870,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B5FC3A-2248-4A70-8E64-BEDB15B3724E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E998A104-A998-4687-A4FC-B4D493161FEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -65885,14 +65895,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B5FC3A-2248-4A70-8E64-BEDB15B3724E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>